--- a/data/la_villa_letira_becara.xlsx
+++ b/data/la_villa_letira_becara.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,30 +462,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -510,21 +515,24 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>27</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>20</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>16</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -544,24 +552,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>18</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>26</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37</v>
       </c>
     </row>
@@ -581,24 +592,27 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>30</v>
       </c>
     </row>
@@ -618,24 +632,27 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>23</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>14</v>
       </c>
     </row>
@@ -655,24 +672,27 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>16</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>30</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>19</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>27</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>28</v>
       </c>
     </row>
@@ -692,24 +712,27 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>29</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>20</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>13</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>39</v>
       </c>
     </row>
@@ -729,24 +752,27 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>11</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>28</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>23</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>19</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>26</v>
       </c>
     </row>
@@ -766,24 +792,27 @@
         <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>22</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>18</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>19</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>24</v>
       </c>
     </row>
@@ -803,24 +832,27 @@
         <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>19</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>24</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>27</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>12</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>27</v>
       </c>
     </row>
@@ -840,24 +872,27 @@
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>22</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>14</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>13</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>17</v>
       </c>
     </row>
@@ -877,16 +912,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>13</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -895,6 +930,9 @@
         <v>11</v>
       </c>
       <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
         <v>12</v>
       </c>
     </row>
@@ -914,26 +952,29 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>20</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
+      <c r="L13" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -960,15 +1001,18 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -988,24 +1032,27 @@
         <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>10</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>19</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
       </c>
       <c r="J15" t="n">
         <v>15</v>
       </c>
       <c r="K15" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1025,24 +1072,27 @@
         <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>16</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>23</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>24</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1062,24 +1112,27 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>11</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>34</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
       </c>
       <c r="I17" t="n">
         <v>18</v>
       </c>
       <c r="J17" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1099,24 +1152,27 @@
         <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
         <v>13</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>22</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>20</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>29</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1131,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,30 +1223,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -1218,32 +1279,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1268,31 +1330,32 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
@@ -1319,29 +1382,34 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -1364,25 +1432,34 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -1409,29 +1486,34 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -1454,25 +1536,34 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>39</t>
         </is>
@@ -1499,33 +1590,38 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1548,29 +1644,34 @@
           <t>32</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -1597,33 +1698,38 @@
           <t>12</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1650,33 +1756,38 @@
           <t>13</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1699,33 +1810,38 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1752,33 +1868,38 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1796,14 +1917,15 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1822,33 +1944,38 @@
           <t>39</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1875,29 +2002,34 @@
           <t>19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1924,33 +2056,38 @@
           <t>12</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1977,29 +2114,38 @@
           <t>13</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>17</t>
         </is>
